--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/123.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/123.xlsx
@@ -479,13 +479,13 @@
         <v>-17.2127203036949</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.01878272504723</v>
+        <v>-10.06103158631748</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.106073009221551</v>
+        <v>-3.101320503290005</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.874757843726608</v>
+        <v>-6.927572193390132</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.20203774894316</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.31507463065834</v>
+        <v>-10.35769007640815</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.036474327314936</v>
+        <v>-3.028186899616123</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.850641821892149</v>
+        <v>-6.903128863984629</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.15665635416789</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.13865903321996</v>
+        <v>-11.18323832439603</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.828935142667894</v>
+        <v>-2.814153932759585</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.724418930195069</v>
+        <v>-6.776552480110822</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.02036939002281</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.86289904181856</v>
+        <v>-11.90865664025039</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.810920133957679</v>
+        <v>-2.800852153072392</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.974337899140777</v>
+        <v>-7.027008233473041</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.75262278585888</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.72861447492485</v>
+        <v>-12.77713454925629</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.598248766596681</v>
+        <v>-2.585012448423696</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.478715682764395</v>
+        <v>-6.530364817475005</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.31941746138906</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.40631134692112</v>
+        <v>-13.4527104681922</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.532865806205101</v>
+        <v>-2.52065068765377</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.561040083033169</v>
+        <v>-6.609560157364606</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.72071182411033</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.98808091599606</v>
+        <v>-14.03995261985498</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.44373340845863</v>
+        <v>-2.431583751421508</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.036523154285097</v>
+        <v>-6.080539476438981</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.98149242592284</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.99830918786932</v>
+        <v>-15.04994523027709</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.274463025017953</v>
+        <v>-2.264774720915076</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.823563756261581</v>
+        <v>-5.864948525544277</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.13896697936281</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.74107480498897</v>
+        <v>-15.79421646222354</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.238956699711192</v>
+        <v>-2.228836349614538</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.454321539216381</v>
+        <v>-5.49299620181084</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.25872758137432</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.45531229421649</v>
+        <v>-16.51002502779207</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.025683086419475</v>
+        <v>-2.015287797963144</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.217782903774916</v>
+        <v>-5.253668905864087</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-12.41899668850244</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.10802905239075</v>
+        <v>-17.16306909353736</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.174018877616231</v>
+        <v>-2.170536325060332</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.701343925880189</v>
+        <v>-4.738342773710907</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.68680883781692</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.07815560065981</v>
+        <v>-18.13114015026027</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.950978406404586</v>
+        <v>-1.946225900473039</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.016642671863599</v>
+        <v>-4.05017205944126</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.12565917913162</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.66865773573018</v>
+        <v>-18.72215288514147</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.697982746291071</v>
+        <v>-1.695298824208517</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.765623949479186</v>
+        <v>-3.800816059517745</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-10.77055737754479</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.6023745897964</v>
+        <v>-19.65585664690485</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.565436272321436</v>
+        <v>-1.565226795475969</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.173105599771189</v>
+        <v>-3.20891304804331</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.61073371379422</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.53368246013974</v>
+        <v>-20.58709905573398</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.390261260299142</v>
+        <v>-1.388519984021192</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.722599458987395</v>
+        <v>-2.753471109088185</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.61168529408896</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.32918387310586</v>
+        <v>-21.38239099185463</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.229854365882314</v>
+        <v>-1.230495888721558</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.245267189680904</v>
+        <v>-2.27899296180119</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.71905456468578</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.29262025462279</v>
+        <v>-22.34531677356074</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.121279898415879</v>
+        <v>-1.121934513557966</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.861374685755812</v>
+        <v>-1.890806182544013</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.86495102461739</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.14111930949222</v>
+        <v>-23.19517742792571</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.03868055978743</v>
+        <v>-1.042424958400163</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.520320196728848</v>
+        <v>-1.553090230741689</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.99523603051062</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.85255504591161</v>
+        <v>-23.90883885582819</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8334325281376901</v>
+        <v>-0.8392193259937331</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.186086797482423</v>
+        <v>-1.218189124050336</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.07077879932129</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.4614780510803</v>
+        <v>-24.51507793891432</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5774780075819455</v>
+        <v>-0.5861712966688516</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.8180883492071872</v>
+        <v>-0.8490385531250276</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.06500745594409</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.14759327380379</v>
+        <v>-25.20480663722213</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.4486890245278862</v>
+        <v>-0.4622395579690726</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5862629427887437</v>
+        <v>-0.6110728566738146</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.97412113363435</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.55493409211841</v>
+        <v>-25.60874345679791</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3916720456521691</v>
+        <v>-0.407500639787816</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.4059426557496505</v>
+        <v>-0.431158431022815</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.81058539084158</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.0193704431258</v>
+        <v>-26.07617794515605</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4247301103275274</v>
+        <v>-0.440192119983606</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3583259503142928</v>
+        <v>-0.3801508191514502</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.59491919612286</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.26821584323849</v>
+        <v>-26.3236617457732</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.113853379350742</v>
+        <v>-0.1278752356942306</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.3420391255791856</v>
+        <v>-0.3633010253941488</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.35407069423412</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.28962175838471</v>
+        <v>-26.34809198287586</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1612213310321069</v>
+        <v>-0.1759894486375739</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.5113487859283872</v>
+        <v>-0.5312229016421273</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.11706960858085</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.32353082274478</v>
+        <v>-26.38314007758316</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3511120914485018</v>
+        <v>-0.3655267168772422</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.4742321073720937</v>
+        <v>-0.4936872693948987</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.905407250108295</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.36185199316252</v>
+        <v>-26.42133032497248</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1290273583443025</v>
+        <v>-0.1400772619427193</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7829093314714692</v>
+        <v>-0.8050353232739863</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.731465293718266</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.47041336832611</v>
+        <v>-26.53172462253391</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1906266432146236</v>
+        <v>-0.2017551006300908</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.835828419557726</v>
+        <v>-0.8550741047350633</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.602990003471181</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.19831603836652</v>
+        <v>-26.25762417023953</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2802565484690803</v>
+        <v>-0.2907172984396194</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9645650334004184</v>
+        <v>-0.9814541040662451</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.521477416151699</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.78970526667624</v>
+        <v>-25.85173659754035</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.2901150525089</v>
+        <v>-0.2995807874634679</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.488309516280828</v>
+        <v>-1.505342602277914</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.483372489203328</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.87455648139347</v>
+        <v>-25.9397037803339</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.1958897489569975</v>
+        <v>-0.2036142076336159</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.667320573035749</v>
+        <v>-1.689237087992798</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.484337778262304</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.44715825512532</v>
+        <v>-25.51298635381352</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.2415949781774632</v>
+        <v>-0.2487695601347291</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.169750786889828</v>
+        <v>-2.191641117241194</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.515309563005397</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.8034228167005</v>
+        <v>-24.86680265475729</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2740638892249438</v>
+        <v>-0.2775726263865265</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.188210933896662</v>
+        <v>-2.207443526771157</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.560928279052817</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.44440568817468</v>
+        <v>-24.50857106440198</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.475750814501734</v>
+        <v>-0.478185982830295</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.341809830835792</v>
+        <v>-2.364603530083237</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.606634336178731</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.63734377179932</v>
+        <v>-23.69835390304176</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5646868277055791</v>
+        <v>-0.5664935654977373</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.505607631688627</v>
+        <v>-2.527484869737151</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.639597674141056</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.83999634413252</v>
+        <v>-22.89912118376575</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.5199242442897177</v>
+        <v>-0.5217571666875593</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.6778892447829</v>
+        <v>-2.701193543841173</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.646346116777766</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.47659329415473</v>
+        <v>-22.53942325549217</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5719268711770537</v>
+        <v>-0.5723196402623054</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.95413683474332</v>
+        <v>-2.978121933549362</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.620078671530974</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.81239458638828</v>
+        <v>-21.8742426250126</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.5272428415782425</v>
+        <v>-0.5311574401279187</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.145153533204104</v>
+        <v>-3.170539508414211</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.561761714522763</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.41575017949535</v>
+        <v>-21.47673412613211</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6925331649550341</v>
+        <v>-0.6916952575731637</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.328183926931434</v>
+        <v>-3.353006933119347</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.473894667215202</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.76499726674735</v>
+        <v>-20.82272122997653</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.50022032851292</v>
+        <v>-0.5013593588601502</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.25162013991302</v>
+        <v>-3.279310360423271</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.365953891147113</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.27641870929982</v>
+        <v>-20.33334404205565</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2540981273913116</v>
+        <v>-0.255512096098218</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.371598003154598</v>
+        <v>-3.404577514012906</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.254975621199378</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.35536211208155</v>
+        <v>-19.41315153682493</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.2228991697194784</v>
+        <v>-0.2199141246715648</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.36403065211208</v>
+        <v>-3.399484608207474</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.153523796173872</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.0181698523929</v>
+        <v>-19.07416563164696</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1717606348196964</v>
+        <v>-0.1700979123587971</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.601642856386567</v>
+        <v>-3.6383013043434</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.075343037129645</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.43977809745112</v>
+        <v>-18.49306377001695</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.2000007320492995</v>
+        <v>-0.1974084560866377</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.671228445990341</v>
+        <v>-3.709196124231346</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.038459164853746</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.9692145487138</v>
+        <v>-18.02100769875567</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.1225335761348064</v>
+        <v>-0.1204649922858136</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.468978551691356</v>
+        <v>-3.505375153591355</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.051041701403456</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.27676265141491</v>
+        <v>-17.3297864779239</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.1827188922982211</v>
+        <v>-0.1801658932440845</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.85448140886598</v>
+        <v>-3.893915425025259</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.120587934529015</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.6114772825126</v>
+        <v>-16.66349300170278</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.128621496956209</v>
+        <v>-0.1252960520344105</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.699416174008577</v>
+        <v>-3.735289083794906</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.25934959823584</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.9498970353145</v>
+        <v>-15.99777558680669</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.0428014518286946</v>
+        <v>-0.04079832949391051</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.010777320190506</v>
+        <v>-4.050080413321368</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.468679902027894</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.21657096854374</v>
+        <v>-15.26210599782726</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01547238811982813</v>
+        <v>0.01442500389249005</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.973752287754105</v>
+        <v>-4.016917610223276</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.748015145629179</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.3975295950682</v>
+        <v>-14.44455714687568</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05137148251184101</v>
+        <v>0.05104417494079786</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.162713494668737</v>
+        <v>-4.209178077454023</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.10161775075692</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.81964843993725</v>
+        <v>-13.86667599174473</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1140443362151837</v>
+        <v>0.1132587980446801</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.040719416789534</v>
+        <v>-4.080912786513633</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.52227875406488</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.13533995500591</v>
+        <v>-13.17921226182854</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1930301992593171</v>
+        <v>0.1952558907424105</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.103575562732661</v>
+        <v>-4.146060085454062</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.00190315696956</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.74509768420259</v>
+        <v>-12.7867704841478</v>
       </c>
       <c r="F54" t="n">
-        <v>0.04059651727310046</v>
+        <v>0.03825299506443149</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.319755667255241</v>
+        <v>-4.365277604235923</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.54021547129519</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.12677440559355</v>
+        <v>-12.16235928471736</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.09568126300642618</v>
+        <v>-0.0936781406716421</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.719843349795548</v>
+        <v>-4.762144580277165</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.12710592267894</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.69735996468777</v>
+        <v>-11.73359945895367</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.122834699100166</v>
+        <v>-0.1235940526649862</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.849522609442845</v>
+        <v>-4.896262130587807</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.75144299036946</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.91801445342834</v>
+        <v>-10.95382190170047</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.1649264527363154</v>
+        <v>-0.162412730590704</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.286818616659337</v>
+        <v>-5.337250167205666</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-13.40937380923639</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.66317277861415</v>
+        <v>-10.69850890398397</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.3280827307499056</v>
+        <v>-0.3255166393929273</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.283912125428475</v>
+        <v>-5.329381693197789</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-14.08663178741305</v>
       </c>
       <c r="E59" t="n">
-        <v>-10.03890559451497</v>
+        <v>-10.07171490543633</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.2812122865765263</v>
+        <v>-0.2788163951564904</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.600287623598785</v>
+        <v>-5.647943605942667</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-14.76797389524802</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.734234615085157</v>
+        <v>-9.77217610872048</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.3798366038832487</v>
+        <v>-0.3763278667216662</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.465986781048358</v>
+        <v>-5.511783656388716</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-15.44627907760442</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.158971920522555</v>
+        <v>-9.194779368794677</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.4045286870427441</v>
+        <v>-0.400758103824327</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.834652936768523</v>
+        <v>-5.881889965421471</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-16.10556427717027</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.682254989449627</v>
+        <v>-8.717879145481962</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.3523951371269909</v>
+        <v>-0.3474593389556602</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.870840061823054</v>
+        <v>-5.918548413378304</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-16.73009090109839</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.233319925006839</v>
+        <v>-8.270475880471658</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.3656052706942926</v>
+        <v>-0.3588496424279619</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.853047622261148</v>
+        <v>-5.899315820503808</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-17.31068002911138</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.886190607461314</v>
+        <v>-7.922744316995414</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5126187393040346</v>
+        <v>-0.50537869583256</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.022409651821716</v>
+        <v>-6.0682458040706</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-17.83034063657294</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.533549430419423</v>
+        <v>-7.570718478187083</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.4302681544295776</v>
+        <v>-0.4223865881188585</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.254928950290772</v>
+        <v>-6.297832426703108</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-18.27488070358254</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.277568725257995</v>
+        <v>-7.313166696684648</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.554461739186191</v>
+        <v>-0.5468158343266231</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.19469126491599</v>
+        <v>-6.23390271192696</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-18.63892886676308</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.111060817716923</v>
+        <v>-7.147352681194187</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.652536179773561</v>
+        <v>-0.6442880289832736</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.28032801780372</v>
+        <v>-6.318884849672603</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-18.91337741594998</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.826237769395172</v>
+        <v>-6.863040232683264</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6083365653798939</v>
+        <v>-0.6029294443062609</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.229150205995412</v>
+        <v>-6.266725115151167</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-19.09413407446076</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.726343498712802</v>
+        <v>-6.763682746417405</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9113710069544854</v>
+        <v>-0.9067363317485144</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.245685784484513</v>
+        <v>-6.282920293766382</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-19.18522262203129</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.541165967319428</v>
+        <v>-6.579670429976945</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.8032154931789863</v>
+        <v>-0.7967348032723319</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.067198419843262</v>
+        <v>-6.101762099345418</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-19.18659079481127</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.472104069829324</v>
+        <v>-6.513082977723927</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.8773310195659977</v>
+        <v>-0.8710467142019691</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.962145781841252</v>
+        <v>-5.996002476989955</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-19.10238967204054</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.490852247498675</v>
+        <v>-6.533218939494501</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.014512168741603</v>
+        <v>-1.008777740096927</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.750639629433167</v>
+        <v>-5.781275618082806</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-18.94367981275371</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.548667856847738</v>
+        <v>-6.591518964048707</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.077957468312608</v>
+        <v>-1.073034762444119</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.589080612366267</v>
+        <v>-5.621772092562058</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-18.71755941876106</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.766497591528376</v>
+        <v>-6.809820021631648</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.9548243600861742</v>
+        <v>-0.94910302374434</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.431645670694511</v>
+        <v>-5.462347120858359</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-18.43390177793671</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.933084052886499</v>
+        <v>-6.976773067469338</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.308958059652023</v>
+        <v>-1.304899445771088</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.263867809777792</v>
+        <v>-5.294503798427431</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-18.10835109079824</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.396184989004033</v>
+        <v>-7.437595942892412</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.247437328598752</v>
+        <v>-1.243601283866126</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.0122599337655</v>
+        <v>-5.040486938692261</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-17.75270456864863</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.809666097351426</v>
+        <v>-7.848602606002719</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.321094624386303</v>
+        <v>-1.318083394732706</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.960545337540682</v>
+        <v>-4.990304141899926</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-17.37952388830226</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.409489952045105</v>
+        <v>-8.446750645932658</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.363147101113927</v>
+        <v>-1.35755668780051</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.613219635452531</v>
+        <v>-4.646055130979581</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-17.00495056240195</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.819671800076383</v>
+        <v>-8.85659209409005</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.396362273423386</v>
+        <v>-1.392879720867487</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.480136377066386</v>
+        <v>-4.513547933918471</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-16.63925133189414</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.25859125284525</v>
+        <v>-9.29378336288381</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.496047067260288</v>
+        <v>-1.491844438048094</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.130545706586616</v>
+        <v>-4.163407386719348</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-16.28874466820522</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.13715023503928</v>
+        <v>-10.1701035612919</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.494894944610216</v>
+        <v>-1.492957283789641</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.145614947157443</v>
+        <v>-4.180296457385175</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-15.96113018807825</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.87042393259867</v>
+        <v>-10.89986852168971</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.583752403997011</v>
+        <v>-1.583346542608917</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.933951687115258</v>
+        <v>-3.96711449021335</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-15.65932834426753</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.64870896732792</v>
+        <v>-11.67626826480975</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.720619337904415</v>
+        <v>-1.720095645790746</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.616646635443185</v>
+        <v>-3.652493360623831</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-15.38234905347151</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.84623572365492</v>
+        <v>-12.87599452801416</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.787939959116571</v>
+        <v>-1.788594574258657</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.469737905256177</v>
+        <v>-3.504877646083369</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-15.13317956560256</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.7129199871715</v>
+        <v>-13.73944499272884</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.840963785625561</v>
+        <v>-1.838921386382252</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.135203383044392</v>
+        <v>-3.170238385448851</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-14.91418009087999</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.81157367243779</v>
+        <v>-14.83587298651203</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.026141317018935</v>
+        <v>-2.024727348312028</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.887078059588</v>
+        <v>-2.921995231266883</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-14.72248558426843</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.85857822299346</v>
+        <v>-15.88137192224091</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.055009844784941</v>
+        <v>-2.053045999358682</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.447805114642406</v>
+        <v>-2.480365671809779</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-14.56045903574812</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.24704312396419</v>
+        <v>-17.26713980882624</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.979768380353541</v>
+        <v>-1.974033951708865</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.190868671373532</v>
+        <v>-2.225026489487596</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-14.43529415451703</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.85683340447431</v>
+        <v>-18.87458656712769</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.206959111566014</v>
+        <v>-2.204903620019863</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.010221076763396</v>
+        <v>-2.042964926170553</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-14.34942128094078</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.42821086844679</v>
+        <v>-20.44202324794481</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.408436559997336</v>
+        <v>-2.402990162015178</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.73475902497348</v>
+        <v>-1.768890658481859</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-14.31000929760646</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.08591897735763</v>
+        <v>-22.09380054366834</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.549767969173769</v>
+        <v>-2.541388895355064</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.872044912571819</v>
+        <v>-1.906438392137034</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-14.32827204829055</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.71640818866051</v>
+        <v>-23.72080720241533</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.668135479165815</v>
+        <v>-2.660463389700563</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.670632925654705</v>
+        <v>-1.703913559478373</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-14.40265159990906</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.81640047217052</v>
+        <v>-25.81866544056214</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.759847060572106</v>
+        <v>-2.75047297173743</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.642052428551217</v>
+        <v>-1.676877954110209</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-14.52871182042012</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.02051584018079</v>
+        <v>-28.01863054857158</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.601181442433227</v>
+        <v>-2.5915716921474</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.719833799733912</v>
+        <v>-1.751085126617112</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-14.70276263909498</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.27097796025077</v>
+        <v>-30.26695862327836</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.03111957545267</v>
+        <v>-3.021601471286735</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.086928879113069</v>
+        <v>-2.118677713504255</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-14.90552560585758</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.50531036321974</v>
+        <v>-32.50081970334503</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.018262934062095</v>
+        <v>-3.004358908444182</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.352152750080756</v>
+        <v>-2.383836122957733</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-15.1189539095016</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.75290526896738</v>
+        <v>-34.74959291634842</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.274911346668451</v>
+        <v>-3.258964921807229</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.518987965192871</v>
+        <v>-2.547961231381611</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-15.33383931956512</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.24980380542716</v>
+        <v>-37.24540479167235</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.525249269305095</v>
+        <v>-3.509289752141031</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.983136285537744</v>
+        <v>-3.012580874628786</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-15.52904138729233</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.67855690559577</v>
+        <v>-39.67150015436408</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.464723553267795</v>
+        <v>-3.45133012746071</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.470300874278371</v>
+        <v>-3.497951817880096</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-15.69215626558421</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.24806535361577</v>
+        <v>-42.23971246440275</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.643014533366421</v>
+        <v>-3.628717738663256</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.74207089666692</v>
+        <v>-3.768137671624797</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-15.81555950330647</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.546235825241</v>
+        <v>-44.53932308934056</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.83892775309001</v>
+        <v>-3.825180835106198</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.238557205030856</v>
+        <v>-4.26065701222769</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-15.89139557725158</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.86602168885791</v>
+        <v>-46.8615310289832</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.957858232104249</v>
+        <v>-3.943103206801624</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.544694522378937</v>
+        <v>-4.568273759796885</v>
       </c>
     </row>
   </sheetData>
